--- a/documents/Collections.xlsx
+++ b/documents/Collections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfStudy\workspace\CoreJava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfStudy\workspace\CoreJava\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,10 +23,39 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>Synchronized Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashtable is a legacy class from JDK 1.1 itself, which uses synchronized methods to achieve thread-safety
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,12 +403,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>